--- a/input/231030 - Pactos_rec.xlsx
+++ b/input/231030 - Pactos_rec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledadaraya/Dropbox (Personal)/Proyectos/Datos electorales/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledadaraya/Documents/GitHub/datos_municipales/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FD01DC-613B-2949-BCFA-F247FB86A753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCAB55D-3317-4E4C-8CF0-9C3DBB35108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="2100" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="149">
   <si>
     <t>fecha</t>
   </si>
@@ -543,9 +543,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,9 +583,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,26 +618,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,26 +653,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -866,7 +832,7 @@
   <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4402,6 +4368,9 @@
       <c r="A177">
         <v>2021</v>
       </c>
+      <c r="B177" t="s">
+        <v>85</v>
+      </c>
       <c r="C177" t="s">
         <v>85</v>
       </c>

--- a/input/231030 - Pactos_rec.xlsx
+++ b/input/231030 - Pactos_rec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledadaraya/Documents/GitHub/datos_municipales/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledad/Documents/GitHub/datos_municipales/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCAB55D-3317-4E4C-8CF0-9C3DBB35108D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24F3D49-6A7D-9F40-9900-AC897F39727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2100" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="F149" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -3901,7 +3901,7 @@
         <v>144</v>
       </c>
       <c r="F153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>138</v>
       </c>
       <c r="F161" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
